--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/196.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/196.xlsx
@@ -479,13 +479,13 @@
         <v>-11.68202526485131</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.72915762604912</v>
+        <v>-14.70275045121736</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.04274908261732769</v>
+        <v>-0.0648488898141613</v>
       </c>
       <c r="G2" t="n">
-        <v>-11.21585125077477</v>
+        <v>-11.18061986382769</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-11.41449008160142</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.88021661623696</v>
+        <v>-14.85640171736786</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02983464433720163</v>
+        <v>0.004723607486771031</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.91932368371252</v>
+        <v>-10.88646200357979</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-11.08893344261783</v>
       </c>
       <c r="E4" t="n">
-        <v>-15.24449685050514</v>
+        <v>-15.21843007554727</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06496129286155267</v>
+        <v>0.04186647064874788</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.55780592534394</v>
+        <v>-10.52205084628318</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-10.71947609188383</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.75732235281555</v>
+        <v>-15.7286894865007</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1966698594493169</v>
+        <v>0.1701841308005051</v>
       </c>
       <c r="G5" t="n">
-        <v>-10.37324373218412</v>
+        <v>-10.33594376138805</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-10.30119500924819</v>
       </c>
       <c r="E6" t="n">
-        <v>-16.24455240307039</v>
+        <v>-16.21391641442075</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1865233247469792</v>
+        <v>0.1612944571709731</v>
       </c>
       <c r="G6" t="n">
-        <v>-10.21651577486582</v>
+        <v>-10.17765782003158</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-9.839347713023752</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.82112432791716</v>
+        <v>-16.78569655642745</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3307219482457501</v>
+        <v>0.2978209912044925</v>
       </c>
       <c r="G7" t="n">
-        <v>-10.06849419893727</v>
+        <v>-10.02995045937122</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-9.339745722958314</v>
       </c>
       <c r="E8" t="n">
-        <v>-17.41205850898131</v>
+        <v>-17.37254593900498</v>
       </c>
       <c r="F8" t="n">
-        <v>0.476452371177003</v>
+        <v>0.4469554128745942</v>
       </c>
       <c r="G8" t="n">
-        <v>-9.862866490505116</v>
+        <v>-9.824492950876017</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-8.816258302527041</v>
       </c>
       <c r="E9" t="n">
-        <v>-18.14538457575207</v>
+        <v>-18.10062199233621</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7587747896559839</v>
+        <v>0.7254156020152659</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.900428307358029</v>
+        <v>-9.861387060284001</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-8.283966208982488</v>
       </c>
       <c r="E10" t="n">
-        <v>-18.63178981092788</v>
+        <v>-18.58398981325274</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7957867297895436</v>
+        <v>0.7665516175439692</v>
       </c>
       <c r="G10" t="n">
-        <v>-9.552330159402215</v>
+        <v>-9.51488617327488</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-7.759404052482056</v>
       </c>
       <c r="E11" t="n">
-        <v>-19.24034623161699</v>
+        <v>-19.18881492763196</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9212764525274879</v>
+        <v>0.892067524887597</v>
       </c>
       <c r="G11" t="n">
-        <v>-9.506847499330059</v>
+        <v>-9.467924082981607</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-7.259872600403995</v>
       </c>
       <c r="E12" t="n">
-        <v>-19.78876970535405</v>
+        <v>-19.73596844799337</v>
       </c>
       <c r="F12" t="n">
-        <v>1.084183976787085</v>
+        <v>1.051165189020252</v>
       </c>
       <c r="G12" t="n">
-        <v>-9.015977788885223</v>
+        <v>-8.976543772725945</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-6.799165338582048</v>
       </c>
       <c r="E13" t="n">
-        <v>-20.604551095422</v>
+        <v>-20.54918374670434</v>
       </c>
       <c r="F13" t="n">
-        <v>1.271809768811862</v>
+        <v>1.236355812716468</v>
       </c>
       <c r="G13" t="n">
-        <v>-8.529991507400352</v>
+        <v>-8.485621693069742</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-6.398324532359378</v>
       </c>
       <c r="E14" t="n">
-        <v>-21.4368811562819</v>
+        <v>-21.38117340769035</v>
       </c>
       <c r="F14" t="n">
-        <v>1.597336786668539</v>
+        <v>1.557850401297893</v>
       </c>
       <c r="G14" t="n">
-        <v>-8.080912427626306</v>
+        <v>-8.030493969382819</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-6.071029817679964</v>
       </c>
       <c r="E15" t="n">
-        <v>-22.26202354288168</v>
+        <v>-22.20491491788607</v>
       </c>
       <c r="F15" t="n">
-        <v>1.712208651801843</v>
+        <v>1.671098820878823</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.646640742366253</v>
+        <v>-7.590906809169025</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-5.826431169838616</v>
       </c>
       <c r="E16" t="n">
-        <v>-23.11756625667995</v>
+        <v>-23.06200252341967</v>
       </c>
       <c r="F16" t="n">
-        <v>1.992462486431831</v>
+        <v>1.949729209956437</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.063326281555989</v>
+        <v>-7.011611685331172</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-5.667607160504393</v>
       </c>
       <c r="E17" t="n">
-        <v>-23.72912081471982</v>
+        <v>-23.67489249634939</v>
       </c>
       <c r="F17" t="n">
-        <v>2.183741030949449</v>
+        <v>2.140326954726286</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.978920205135381</v>
+        <v>-6.925451240329772</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-5.589928923662713</v>
       </c>
       <c r="E18" t="n">
-        <v>-24.54329185153824</v>
+        <v>-24.48747936452396</v>
       </c>
       <c r="F18" t="n">
-        <v>2.605234628635978</v>
+        <v>2.55715969260116</v>
       </c>
       <c r="G18" t="n">
-        <v>-6.577693492247844</v>
+        <v>-6.524368542773494</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-5.589242170530957</v>
       </c>
       <c r="E19" t="n">
-        <v>-25.39654341233921</v>
+        <v>-25.3381779262708</v>
       </c>
       <c r="F19" t="n">
-        <v>2.871244037774169</v>
+        <v>2.822462117385897</v>
       </c>
       <c r="G19" t="n">
-        <v>-6.271700190231023</v>
+        <v>-6.220875870599442</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-5.655753663856136</v>
       </c>
       <c r="E20" t="n">
-        <v>-26.14978287173224</v>
+        <v>-26.09133883184677</v>
       </c>
       <c r="F20" t="n">
-        <v>3.092922909490274</v>
+        <v>3.04427191213042</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.166163137023869</v>
+        <v>-6.109146158148151</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-5.779623352130032</v>
       </c>
       <c r="E21" t="n">
-        <v>-26.73407925525563</v>
+        <v>-26.67538646161617</v>
       </c>
       <c r="F21" t="n">
-        <v>3.408395038764505</v>
+        <v>3.36162933301386</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.83152387638935</v>
+        <v>-5.778290573034893</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-5.948374320002347</v>
       </c>
       <c r="E22" t="n">
-        <v>-27.32102028395305</v>
+        <v>-27.26184307510845</v>
       </c>
       <c r="F22" t="n">
-        <v>3.60988557949867</v>
+        <v>3.56725704144601</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.6935440967404</v>
+        <v>-5.633254042154251</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-6.148094819448187</v>
       </c>
       <c r="E23" t="n">
-        <v>-27.76518975016145</v>
+        <v>-27.70868337109656</v>
       </c>
       <c r="F23" t="n">
-        <v>3.791737665970245</v>
+        <v>3.749789927665355</v>
       </c>
       <c r="G23" t="n">
-        <v>-5.492092832914761</v>
+        <v>-5.434107023628756</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-6.366239242106174</v>
       </c>
       <c r="E24" t="n">
-        <v>-27.9954178956332</v>
+        <v>-27.9382176245177</v>
       </c>
       <c r="F24" t="n">
-        <v>3.928159461581031</v>
+        <v>3.885740400373838</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.330651646573436</v>
+        <v>-5.271827929905561</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-6.589225583245459</v>
       </c>
       <c r="E25" t="n">
-        <v>-28.26065485890373</v>
+        <v>-28.20528751018607</v>
       </c>
       <c r="F25" t="n">
-        <v>4.243867252306413</v>
+        <v>4.201029237408285</v>
       </c>
       <c r="G25" t="n">
-        <v>-5.035001263801578</v>
+        <v>-4.97812830025712</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-6.808999969700664</v>
       </c>
       <c r="E26" t="n">
-        <v>-28.22010799700291</v>
+        <v>-28.16514650967334</v>
       </c>
       <c r="F26" t="n">
-        <v>4.409013560351945</v>
+        <v>4.362143116178566</v>
       </c>
       <c r="G26" t="n">
-        <v>-5.041272476862765</v>
+        <v>-4.98222619104658</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-7.01689470835544</v>
       </c>
       <c r="E27" t="n">
-        <v>-28.10998863780115</v>
+        <v>-28.05689934977795</v>
       </c>
       <c r="F27" t="n">
-        <v>4.358739117439717</v>
+        <v>4.314748979891518</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.849718993985471</v>
+        <v>-4.79699629044184</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-7.206128704455717</v>
       </c>
       <c r="E28" t="n">
-        <v>-28.06066993299637</v>
+        <v>-28.00583936869522</v>
       </c>
       <c r="F28" t="n">
-        <v>4.33373281901202</v>
+        <v>4.29390603376749</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.760887719204359</v>
+        <v>-4.71227599875303</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-7.37019572811826</v>
       </c>
       <c r="E29" t="n">
-        <v>-27.8435864595777</v>
+        <v>-27.79217298631825</v>
       </c>
       <c r="F29" t="n">
-        <v>4.320771439198712</v>
+        <v>4.282096776604253</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.63885436441663</v>
+        <v>-4.592494520054079</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-7.505710376465457</v>
       </c>
       <c r="E30" t="n">
-        <v>-27.69629805260829</v>
+        <v>-27.64637710187279</v>
       </c>
       <c r="F30" t="n">
-        <v>4.219908338106054</v>
+        <v>4.184690043461811</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.592141027877353</v>
+        <v>-4.54608230648016</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-7.612290945974091</v>
       </c>
       <c r="E31" t="n">
-        <v>-27.24958867964859</v>
+        <v>-27.20167085124788</v>
       </c>
       <c r="F31" t="n">
-        <v>4.072698484953686</v>
+        <v>4.039444035735702</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.678327657484435</v>
+        <v>-4.637060718927314</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-7.690532787111697</v>
       </c>
       <c r="E32" t="n">
-        <v>-26.87107711219145</v>
+        <v>-26.8253456983653</v>
       </c>
       <c r="F32" t="n">
-        <v>3.984822948280021</v>
+        <v>3.953427606065562</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.75792885876213</v>
+        <v>-4.717159427712994</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-7.74083691284526</v>
       </c>
       <c r="E33" t="n">
-        <v>-26.4513640676914</v>
+        <v>-26.40567193077377</v>
       </c>
       <c r="F33" t="n">
-        <v>3.850914874814847</v>
+        <v>3.820174147742474</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.683878793889327</v>
+        <v>-4.65363557432494</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-7.761677865724862</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.96345321768879</v>
+        <v>-25.91926669559797</v>
       </c>
       <c r="F34" t="n">
-        <v>3.718996831381615</v>
+        <v>3.690665088032119</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.499408246849407</v>
+        <v>-4.474035363942141</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-7.75399892287077</v>
       </c>
       <c r="E35" t="n">
-        <v>-25.55400453861665</v>
+        <v>-25.51235792327712</v>
       </c>
       <c r="F35" t="n">
-        <v>3.480428888999683</v>
+        <v>3.45136397669105</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.501162615430197</v>
+        <v>-4.48031966930617</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-7.717177941886235</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.86525776302197</v>
+        <v>-24.82333620932276</v>
       </c>
       <c r="F36" t="n">
-        <v>3.25869764807221</v>
+        <v>3.234398333997966</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.768455070246877</v>
+        <v>-4.749903277120151</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-7.652179804656186</v>
       </c>
       <c r="E37" t="n">
-        <v>-24.38428583352548</v>
+        <v>-24.34474707894346</v>
       </c>
       <c r="F37" t="n">
-        <v>3.129398065207323</v>
+        <v>3.103894259271641</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.758596566207057</v>
+        <v>-4.74412957156695</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-7.558261542312048</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.96734835722787</v>
+        <v>-23.92982581728348</v>
       </c>
       <c r="F38" t="n">
-        <v>3.055819323236823</v>
+        <v>3.031048686260277</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.904261527624102</v>
+        <v>-4.887974702888995</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-7.433879003356998</v>
       </c>
       <c r="E39" t="n">
-        <v>-23.46669869656026</v>
+        <v>-23.43030209466027</v>
       </c>
       <c r="F39" t="n">
-        <v>3.02811601042373</v>
+        <v>3.002769312122148</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.77264460715623</v>
+        <v>-4.759395196680403</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-7.279734915463908</v>
       </c>
       <c r="E40" t="n">
-        <v>-23.08255743888118</v>
+        <v>-23.04732605193409</v>
       </c>
       <c r="F40" t="n">
-        <v>3.122432960095525</v>
+        <v>3.091875525262936</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.755847182610295</v>
+        <v>-4.745923217056267</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-7.097738147348051</v>
       </c>
       <c r="E41" t="n">
-        <v>-22.55150745101509</v>
+        <v>-22.51700923302714</v>
       </c>
       <c r="F41" t="n">
-        <v>3.136520277953222</v>
+        <v>3.109262103436748</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.683734778558068</v>
+        <v>-4.673954828335298</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-6.89307748078073</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.87288102551706</v>
+        <v>-21.84125002185145</v>
       </c>
       <c r="F42" t="n">
-        <v>3.230365904722714</v>
+        <v>3.204600252730198</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.711857045062096</v>
+        <v>-4.701291556668822</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-6.670618812238006</v>
       </c>
       <c r="E43" t="n">
-        <v>-21.20936311749838</v>
+        <v>-21.17828199055212</v>
       </c>
       <c r="F43" t="n">
-        <v>3.348929799257386</v>
+        <v>3.322771378179617</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.757339705134251</v>
+        <v>-4.744352140715259</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-6.436490353485383</v>
       </c>
       <c r="E44" t="n">
-        <v>-20.91866162520069</v>
+        <v>-20.88932177453239</v>
       </c>
       <c r="F44" t="n">
-        <v>3.254010603654872</v>
+        <v>3.229999320243146</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.807443948109538</v>
+        <v>-4.796040552334394</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-6.196306249550409</v>
       </c>
       <c r="E45" t="n">
-        <v>-20.43043655992989</v>
+        <v>-20.40344023147025</v>
       </c>
       <c r="F45" t="n">
-        <v>3.382891232828823</v>
+        <v>3.356444781088537</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.753974983303928</v>
+        <v>-4.744299771503893</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-5.959902072417918</v>
       </c>
       <c r="E46" t="n">
-        <v>-20.10361340409188</v>
+        <v>-20.0754125837708</v>
       </c>
       <c r="F46" t="n">
-        <v>3.410489807219182</v>
+        <v>3.384697970620981</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.724242363550368</v>
+        <v>-4.720812180205836</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-5.735799271049219</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.55774292940895</v>
+        <v>-19.53256643104431</v>
       </c>
       <c r="F47" t="n">
-        <v>3.417271620091196</v>
+        <v>3.392684275354434</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.992778587137011</v>
+        <v>-4.991377710732947</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-5.530790959586279</v>
       </c>
       <c r="E48" t="n">
-        <v>-19.08199482874631</v>
+        <v>-19.05773479158059</v>
       </c>
       <c r="F48" t="n">
-        <v>3.34539487749012</v>
+        <v>3.322561901334149</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.107663544573158</v>
+        <v>-5.106799452585604</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-5.350170260882258</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.69849509390647</v>
+        <v>-18.67016335055698</v>
       </c>
       <c r="F49" t="n">
-        <v>3.364038316736738</v>
+        <v>3.341702848088753</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.397474760277606</v>
+        <v>-5.394869392012103</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-5.1960543262031</v>
       </c>
       <c r="E50" t="n">
-        <v>-18.18282856187941</v>
+        <v>-18.15583223341977</v>
       </c>
       <c r="F50" t="n">
-        <v>3.509022478406012</v>
+        <v>3.482314180608891</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.306116671048041</v>
+        <v>-5.312073668841027</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-5.073249819846053</v>
       </c>
       <c r="E51" t="n">
-        <v>-17.51906190010674</v>
+        <v>-17.49083489517998</v>
       </c>
       <c r="F51" t="n">
-        <v>3.527796840681047</v>
+        <v>3.499150882063351</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.518814223014723</v>
+        <v>-5.524967605350334</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-4.982924768528028</v>
       </c>
       <c r="E52" t="n">
-        <v>-17.12614879952369</v>
+        <v>-17.09872042507028</v>
       </c>
       <c r="F52" t="n">
-        <v>3.354454751056594</v>
+        <v>3.328348699190192</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.816637928058308</v>
+        <v>-5.815577451528128</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-4.925476631983075</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.73756925118127</v>
+        <v>-16.70849124656979</v>
       </c>
       <c r="F53" t="n">
-        <v>3.387630646457528</v>
+        <v>3.363200409354867</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.845558825035681</v>
+        <v>-5.845899224909566</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-4.898801800503338</v>
       </c>
       <c r="E54" t="n">
-        <v>-16.5441435689976</v>
+        <v>-16.51120333504782</v>
       </c>
       <c r="F54" t="n">
-        <v>3.121647421925021</v>
+        <v>3.098290753655382</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.019948298887472</v>
+        <v>-6.023103543872328</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-4.8979741223429</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.25596889114837</v>
+        <v>-16.22072441189844</v>
       </c>
       <c r="F55" t="n">
-        <v>2.974908891674955</v>
+        <v>2.950871423657547</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.159368231849013</v>
+        <v>-6.166032213995451</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-4.918905228914537</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.93014075032634</v>
+        <v>-15.89109950325231</v>
       </c>
       <c r="F56" t="n">
-        <v>2.921256634629562</v>
+        <v>2.897166797400786</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.474630884277777</v>
+        <v>-6.475730637716482</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-4.955912489663993</v>
       </c>
       <c r="E57" t="n">
-        <v>-15.38319670681039</v>
+        <v>-15.34446967500456</v>
       </c>
       <c r="F57" t="n">
-        <v>2.961450004353661</v>
+        <v>2.933380107061001</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.731698250575068</v>
+        <v>-6.733269326916075</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-5.005648348889688</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.18335579623428</v>
+        <v>-15.14227214991694</v>
       </c>
       <c r="F58" t="n">
-        <v>2.804159078013164</v>
+        <v>2.775120350310216</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.708420136122479</v>
+        <v>-6.709048566658882</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-5.06369530667603</v>
       </c>
       <c r="E59" t="n">
-        <v>-14.84031127717537</v>
+        <v>-14.79769583142556</v>
       </c>
       <c r="F59" t="n">
-        <v>2.933589583906468</v>
+        <v>2.900832642196469</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.817190988131539</v>
+        <v>-6.819154833557798</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-5.12638826708416</v>
       </c>
       <c r="E60" t="n">
-        <v>-14.78739218908912</v>
+        <v>-14.74194880592549</v>
       </c>
       <c r="F60" t="n">
-        <v>2.752496850999713</v>
+        <v>2.719766093895398</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.823763324158086</v>
+        <v>-6.82364549343251</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-5.190175333757665</v>
       </c>
       <c r="E61" t="n">
-        <v>-14.442462378421</v>
+        <v>-14.39780453342788</v>
       </c>
       <c r="F61" t="n">
-        <v>2.638855662333531</v>
+        <v>2.605758320749647</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.234783079571234</v>
+        <v>-7.230842296415874</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-5.252847360949287</v>
       </c>
       <c r="E62" t="n">
-        <v>-14.24042196096749</v>
+        <v>-14.19109016385986</v>
       </c>
       <c r="F62" t="n">
-        <v>2.594210909643245</v>
+        <v>2.559490122506987</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.176064101326093</v>
+        <v>-7.176862731799438</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-5.314524279209192</v>
       </c>
       <c r="E63" t="n">
-        <v>-13.92187314052545</v>
+        <v>-13.87212238972689</v>
       </c>
       <c r="F63" t="n">
-        <v>2.521600998083032</v>
+        <v>2.487063503186559</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.381089563827523</v>
+        <v>-7.377895041934142</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-5.375007209912765</v>
       </c>
       <c r="E64" t="n">
-        <v>-13.73724548585143</v>
+        <v>-13.68470607454758</v>
       </c>
       <c r="F64" t="n">
-        <v>2.434458630368503</v>
+        <v>2.398585720582174</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.389625745280328</v>
+        <v>-7.394705558782918</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-5.434414675223993</v>
       </c>
       <c r="E65" t="n">
-        <v>-13.54870323262773</v>
+        <v>-13.49505097558234</v>
       </c>
       <c r="F65" t="n">
-        <v>2.183845769372183</v>
+        <v>2.156194825770458</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.742371660744953</v>
+        <v>-7.74180869172276</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-5.491500815118282</v>
       </c>
       <c r="E66" t="n">
-        <v>-13.33418585056605</v>
+        <v>-13.27952548620184</v>
       </c>
       <c r="F66" t="n">
-        <v>2.117493978570316</v>
+        <v>2.089685927334489</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.782578122771894</v>
+        <v>-7.785825013876642</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-5.547098303814608</v>
       </c>
       <c r="E67" t="n">
-        <v>-13.16498092863958</v>
+        <v>-13.10978377985886</v>
       </c>
       <c r="F67" t="n">
-        <v>2.403744087901814</v>
+        <v>2.364807579250521</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.866290307141891</v>
+        <v>-7.863920600327538</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-5.601138514621201</v>
       </c>
       <c r="E68" t="n">
-        <v>-13.11718093096444</v>
+        <v>-13.0599675675461</v>
       </c>
       <c r="F68" t="n">
-        <v>2.105684721407078</v>
+        <v>2.074289379192619</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.760727069329054</v>
+        <v>-7.763947775828118</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-5.654605554195255</v>
       </c>
       <c r="E69" t="n">
-        <v>-12.97731585970628</v>
+        <v>-12.919683542597</v>
       </c>
       <c r="F69" t="n">
-        <v>2.173057711830601</v>
+        <v>2.133204741980387</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.833035857923907</v>
+        <v>-7.836269656725813</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-5.707091995647056</v>
       </c>
       <c r="E70" t="n">
-        <v>-12.95847603591704</v>
+        <v>-12.89699458177229</v>
       </c>
       <c r="F70" t="n">
-        <v>2.169234759400817</v>
+        <v>2.13179077327348</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.74036853841017</v>
+        <v>-7.74522578276445</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-5.7567521662227</v>
       </c>
       <c r="E71" t="n">
-        <v>-12.65064981150237</v>
+        <v>-12.59106674126968</v>
       </c>
       <c r="F71" t="n">
-        <v>2.125532652515135</v>
+        <v>2.087276943611612</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.441759295196081</v>
+        <v>-7.45388276762752</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-5.802744934180756</v>
       </c>
       <c r="E72" t="n">
-        <v>-12.58215088303446</v>
+        <v>-12.52315696642964</v>
       </c>
       <c r="F72" t="n">
-        <v>2.132157357753048</v>
+        <v>2.095996417304201</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.509747623853165</v>
+        <v>-7.518807497419639</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-5.84318245389334</v>
       </c>
       <c r="E73" t="n">
-        <v>-12.25208083609171</v>
+        <v>-12.20735752958437</v>
       </c>
       <c r="F73" t="n">
-        <v>2.108407920398157</v>
+        <v>2.072116056920893</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.236183955975299</v>
+        <v>-7.252640980647349</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-5.878924147104797</v>
       </c>
       <c r="E74" t="n">
-        <v>-12.45425217657364</v>
+        <v>-12.4092146547981</v>
       </c>
       <c r="F74" t="n">
-        <v>2.131083788920027</v>
+        <v>2.095944048092834</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.188593435145624</v>
+        <v>-7.201921399438501</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-5.909238254784995</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.58724378883989</v>
+        <v>-12.54200988252173</v>
       </c>
       <c r="F75" t="n">
-        <v>2.063082367960102</v>
+        <v>2.027942627132909</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.119466076141311</v>
+        <v>-7.12992682611185</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-5.93304772931425</v>
       </c>
       <c r="E76" t="n">
-        <v>-12.84194144832283</v>
+        <v>-12.80059595594866</v>
       </c>
       <c r="F76" t="n">
-        <v>2.041165853003053</v>
+        <v>2.008277988264636</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.765188361244204</v>
+        <v>-6.783098631531685</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-5.949124705990072</v>
       </c>
       <c r="E77" t="n">
-        <v>-13.41568543575579</v>
+        <v>-13.37617286577946</v>
       </c>
       <c r="F77" t="n">
-        <v>2.035038655273124</v>
+        <v>2.001208144730104</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.713931995618846</v>
+        <v>-6.726212575684385</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-5.956175437658953</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.90600526948128</v>
+        <v>-13.86833871420563</v>
       </c>
       <c r="F78" t="n">
-        <v>2.086674697680892</v>
+        <v>2.051718249093483</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.737170833162909</v>
+        <v>-6.741923339094456</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-5.955942571551028</v>
       </c>
       <c r="E79" t="n">
-        <v>-14.39419105784356</v>
+        <v>-14.35687799474464</v>
       </c>
       <c r="F79" t="n">
-        <v>2.13095286589161</v>
+        <v>2.096729586263338</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.644529698254856</v>
+        <v>-6.64539379024241</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-5.948672902749491</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.9421039317698</v>
+        <v>-14.90527528387602</v>
       </c>
       <c r="F80" t="n">
-        <v>2.015452570221902</v>
+        <v>1.986047258039386</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.288628537805375</v>
+        <v>-6.293682166702281</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-5.935197405625494</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.71358096902135</v>
+        <v>-15.67735456705829</v>
       </c>
       <c r="F81" t="n">
-        <v>2.115949086834992</v>
+        <v>2.084737036860317</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.233287373693399</v>
+        <v>-6.23549997287365</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-5.914670995955981</v>
       </c>
       <c r="E82" t="n">
-        <v>-16.44140826859858</v>
+        <v>-16.40641254310265</v>
       </c>
       <c r="F82" t="n">
-        <v>2.084344267775065</v>
+        <v>2.056195816665354</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.131848211275705</v>
+        <v>-6.13484634862646</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-5.890364280484299</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.31838308214876</v>
+        <v>-17.28300767987042</v>
       </c>
       <c r="F83" t="n">
-        <v>2.066617289727368</v>
+        <v>2.037238162150535</v>
       </c>
       <c r="G83" t="n">
-        <v>-5.834836229008308</v>
+        <v>-5.839575642637012</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-5.865438555194022</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.37130535358889</v>
+        <v>-18.33675476638958</v>
       </c>
       <c r="F84" t="n">
-        <v>2.075310578814274</v>
+        <v>2.04949255761039</v>
       </c>
       <c r="G84" t="n">
-        <v>-5.727400791889103</v>
+        <v>-5.728343437693708</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-5.844995202648816</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.16988345772282</v>
+        <v>-19.13597439336275</v>
       </c>
       <c r="F85" t="n">
-        <v>2.103485214529668</v>
+        <v>2.075939009350677</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.593479626121087</v>
+        <v>-5.590965903975476</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-5.833876615692371</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.32136458495547</v>
+        <v>-20.2844442909418</v>
       </c>
       <c r="F86" t="n">
-        <v>2.090785680773194</v>
+        <v>2.063658429285138</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.253171398356101</v>
+        <v>-5.252686983150958</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-5.836231957086881</v>
       </c>
       <c r="E87" t="n">
-        <v>-21.38765409759701</v>
+        <v>-21.35041958831514</v>
       </c>
       <c r="F87" t="n">
-        <v>1.903644303953562</v>
+        <v>1.886388648808167</v>
       </c>
       <c r="G87" t="n">
-        <v>-4.887660487620793</v>
+        <v>-4.891561993867628</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-5.858195594002503</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.72859393925227</v>
+        <v>-22.69235444498637</v>
       </c>
       <c r="F88" t="n">
-        <v>2.000029837474349</v>
+        <v>1.980705598479961</v>
       </c>
       <c r="G88" t="n">
-        <v>-4.661988463537961</v>
+        <v>-4.661883725115227</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-5.904191097975493</v>
       </c>
       <c r="E89" t="n">
-        <v>-24.10475207555178</v>
+        <v>-24.07276757970945</v>
       </c>
       <c r="F89" t="n">
-        <v>1.870389854735578</v>
+        <v>1.84742595555119</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.274875253113804</v>
+        <v>-4.277009298477005</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-5.981228681530006</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.57276580858884</v>
+        <v>-25.54176323545964</v>
       </c>
       <c r="F90" t="n">
-        <v>1.652507750843572</v>
+        <v>1.632790742763933</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.165619985899601</v>
+        <v>-4.163813248107442</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-6.092695336404999</v>
       </c>
       <c r="E91" t="n">
-        <v>-27.21554869226011</v>
+        <v>-27.18506981124457</v>
       </c>
       <c r="F91" t="n">
-        <v>1.445413704493149</v>
+        <v>1.427660541839769</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.060842286257267</v>
+        <v>-4.062125331935756</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-6.239178898925614</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.80327844248191</v>
+        <v>-28.77812812872295</v>
       </c>
       <c r="F92" t="n">
-        <v>1.320486950777399</v>
+        <v>1.304645264338911</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.789687602102278</v>
+        <v>-3.792148955036522</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-6.419332612999108</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.6497382814619</v>
+        <v>-30.62677438227752</v>
       </c>
       <c r="F93" t="n">
-        <v>1.180805171759024</v>
+        <v>1.165735931188197</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.777537945065156</v>
+        <v>-3.782539204750696</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-6.627286787012906</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.72363760540836</v>
+        <v>-32.70385513581451</v>
       </c>
       <c r="F94" t="n">
-        <v>1.065815475900144</v>
+        <v>1.051872173373706</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.769093409732243</v>
+        <v>-3.776241807083825</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-6.861226366917754</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.75082359281554</v>
+        <v>-34.73407853748098</v>
       </c>
       <c r="F95" t="n">
-        <v>0.6620095793527866</v>
+        <v>0.6477127846496217</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.753330277110805</v>
+        <v>-3.76140822796415</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-7.11768396079168</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.71850506380708</v>
+        <v>-36.7041428075897</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4417184917379037</v>
+        <v>0.4246068519237678</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.968672474251515</v>
+        <v>-3.97493059500986</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-7.38883565546943</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.80429219873383</v>
+        <v>-38.79220800321092</v>
       </c>
       <c r="F97" t="n">
-        <v>0.05655603443716453</v>
+        <v>0.04215450131126586</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.960083923587343</v>
+        <v>-3.970793427311875</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-7.67315297127864</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.01950983955388</v>
+        <v>-41.01351356485237</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.1498048429541217</v>
+        <v>-0.1668641135568908</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.159859372649241</v>
+        <v>-4.170896183944816</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-7.958684565340053</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.39574971302432</v>
+        <v>-43.39199222210874</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.07083207221283011</v>
+        <v>-0.08768186597013156</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.489366450569802</v>
+        <v>-4.499931938963075</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-8.255706773216001</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.79605323911785</v>
+        <v>-45.79622343905479</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.3471189390817753</v>
+        <v>-0.3577891658977821</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.668914291741234</v>
+        <v>-4.682530286696629</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-8.543177300987685</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.19443219669365</v>
+        <v>-48.1948249657789</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.2776642725064185</v>
+        <v>-0.2928382514999791</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.941234190849136</v>
+        <v>-4.958843338171258</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-8.854111190157086</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.40593162350665</v>
+        <v>-50.41008188350747</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.4257120330406569</v>
+        <v>-0.4397469816869873</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.301966411047214</v>
+        <v>-5.317611712943077</v>
       </c>
     </row>
   </sheetData>
